--- a/luva.xlsx
+++ b/luva.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +48,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,44 +151,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +215,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +260,250 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>الوقت</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>الوردية</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>المشرف</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>نوع البالة</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>وزن البالة</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10:48:56.623258</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>أول</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>مشرف 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>آتاپ</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/luva.xlsx
+++ b/luva.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +506,35 @@
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10:49:07.600676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>أول</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>مشرف 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>هموه دست</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,6 +534,35 @@
         <v>90</v>
       </c>
       <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10:49:29.314627</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>أول</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>مشرف 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>شرق الغزل</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -1,42 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\luva\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A7B39F-FD33-49F7-8098-71F9BE07815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>الوقت</t>
+  </si>
+  <si>
+    <t>الوردية</t>
+  </si>
+  <si>
+    <t>المشرف</t>
+  </si>
+  <si>
+    <t>نوع البالة</t>
+  </si>
+  <si>
+    <t>وزن البالة</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +87,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,142 +413,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>الوقت</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>الوردية</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>المشرف</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>نوع البالة</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>وزن البالة</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ملاحظات</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10:48:56.623258</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>أول</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>مشرف 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>آتاپ</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>500</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10:49:07.600676</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>أول</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>مشرف 1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>هموه دست</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>90</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10:49:29.314627</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>أول</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>مشرف 1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>شرق الغزل</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>90</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\luva\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A7B39F-FD33-49F7-8098-71F9BE07815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
-    <t>الوقت</t>
-  </si>
-  <si>
-    <t>الوردية</t>
-  </si>
-  <si>
-    <t>المشرف</t>
-  </si>
-  <si>
-    <t>نوع البالة</t>
-  </si>
-  <si>
-    <t>وزن البالة</t>
-  </si>
-  <si>
-    <t>ملاحظات</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,45 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,46 +424,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>الوقت</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>الوردية</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>المشرف</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>نوع البالة</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>وزن البالة</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19:03:58.017771</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ثاني</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>انسT.A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>قماش</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -1,40 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\luva\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B428337F-E41D-4B42-B7CB-D6C7627228B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>الوقت</t>
+  </si>
+  <si>
+    <t>الوردية</t>
+  </si>
+  <si>
+    <t>المشرف</t>
+  </si>
+  <si>
+    <t>نوع البالة</t>
+  </si>
+  <si>
+    <t>وزن البالة</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +86,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,84 +411,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>الوقت</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>الوردية</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>المشرف</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>نوع البالة</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>وزن البالة</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ملاحظات</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>19:03:58.017771</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ثاني</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>انسT.A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>قماش</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -1,77 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\luva\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B428337F-E41D-4B42-B7CB-D6C7627228B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
-    <t>الوقت</t>
-  </si>
-  <si>
-    <t>الوردية</t>
-  </si>
-  <si>
-    <t>المشرف</t>
-  </si>
-  <si>
-    <t>نوع البالة</t>
-  </si>
-  <si>
-    <t>وزن البالة</t>
-  </si>
-  <si>
-    <t>ملاحظات</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,44 +51,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,40 +427,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>الوقت</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>الوردية</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>المشرف</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>نوع البالة</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>وزن البالة</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19:03:58.017771</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ثاني</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>انسT.A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>قماش</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>19:10:50.948795</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ثاني</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>قطن خام</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>48160</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -1,42 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\luva\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA780D04-7BCE-4BFF-A803-B5A946CF6E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>الوقت</t>
+  </si>
+  <si>
+    <t>الوردية</t>
+  </si>
+  <si>
+    <t>المشرف</t>
+  </si>
+  <si>
+    <t>نوع البالة</t>
+  </si>
+  <si>
+    <t>وزن البالة</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
+  </si>
+  <si>
+    <t>ثاني</t>
+  </si>
+  <si>
+    <t>19:10:50.948795</t>
+  </si>
+  <si>
+    <t>عبدالحميدT.B</t>
+  </si>
+  <si>
+    <t>قطن خام</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +99,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,113 +425,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>الوقت</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>الوردية</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>المشرف</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>نوع البالة</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>وزن البالة</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ملاحظات</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>45964</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>19:03:58.017771</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ثاني</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>انسT.A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>قماش</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45964</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>19:10:50.948795</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ثاني</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>عبدالحميدT.B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>قطن خام</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>48160</v>
       </c>
-      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -1,90 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\luva\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA780D04-7BCE-4BFF-A803-B5A946CF6E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
-    <t>الوقت</t>
-  </si>
-  <si>
-    <t>الوردية</t>
-  </si>
-  <si>
-    <t>المشرف</t>
-  </si>
-  <si>
-    <t>نوع البالة</t>
-  </si>
-  <si>
-    <t>وزن البالة</t>
-  </si>
-  <si>
-    <t>ملاحظات</t>
-  </si>
-  <si>
-    <t>ثاني</t>
-  </si>
-  <si>
-    <t>19:10:50.948795</t>
-  </si>
-  <si>
-    <t>عبدالحميدT.B</t>
-  </si>
-  <si>
-    <t>قطن خام</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,45 +51,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,60 +427,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>الوقت</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>الوردية</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>المشرف</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>نوع البالة</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>وزن البالة</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ملاحظات</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>19:10:50.948795</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ثاني</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>قطن خام</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>48160</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>04:47:39.704074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,6 +543,35 @@
         <v>185.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04:49:22.805572</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -572,6 +572,35 @@
         <v>196.8</v>
       </c>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>04:49:46.467737</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>192</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,6 +601,35 @@
         <v>192</v>
       </c>
       <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>04:50:06.588637</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -630,6 +630,35 @@
         <v>189.4</v>
       </c>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>04:50:26.025184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +632,7 @@
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,6 +659,35 @@
         <v>173.3</v>
       </c>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>04:50:44.026230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +661,7 @@
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -688,6 +688,35 @@
         <v>188.6</v>
       </c>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>04:51:15.820923</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>مكس</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,7 +690,7 @@
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -717,6 +717,35 @@
         <v>162.6</v>
       </c>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>04:51:34.049012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>مكس</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,7 +719,7 @@
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -746,6 +746,35 @@
         <v>163.8</v>
       </c>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04:52:09.858004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>هبوه تنظيف</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>203</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +748,7 @@
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -775,6 +775,35 @@
         <v>203</v>
       </c>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>04:52:29.975238</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>شرق الغزل</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,7 +777,7 @@
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -804,6 +804,35 @@
         <v>176.8</v>
       </c>
       <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>04:53:42.136566</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,7 +806,7 @@
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -833,6 +833,35 @@
         <v>205.5</v>
       </c>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>04:54:02.533485</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,7 +835,7 @@
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -862,6 +862,35 @@
         <v>207.7</v>
       </c>
       <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>04:54:22.634854</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>209</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,7 +864,7 @@
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -891,6 +891,35 @@
         <v>209</v>
       </c>
       <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>04:54:47.455801</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>207</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +893,7 @@
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -920,6 +920,35 @@
         <v>207</v>
       </c>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>04:55:26.716983</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,7 +922,7 @@
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -949,6 +949,35 @@
         <v>207.5</v>
       </c>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>04:56:41.904706</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>206</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +951,7 @@
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -978,6 +978,35 @@
         <v>206</v>
       </c>
       <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>04:56:57.026846</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,7 +980,7 @@
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1007,6 +1007,35 @@
         <v>208.5</v>
       </c>
       <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>04:57:13.274500</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>208</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1036,6 +1036,35 @@
         <v>208</v>
       </c>
       <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>04:57:33.368258</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>208</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,7 +1038,7 @@
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1065,6 +1065,35 @@
         <v>208</v>
       </c>
       <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>04:57:49.534960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>206</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,7 +1067,7 @@
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1094,6 +1094,35 @@
         <v>206</v>
       </c>
       <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>04:58:09.484563</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,7 +1096,7 @@
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1123,6 +1123,35 @@
         <v>209.5</v>
       </c>
       <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>04:58:30.730846</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>تراب</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>46</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1152,6 +1152,35 @@
         <v>46</v>
       </c>
       <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>04:58:44.645189</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>تراب</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>43</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,7 +1154,7 @@
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1181,6 +1181,35 @@
         <v>43</v>
       </c>
       <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>04:59:00.422755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>تراب</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>45</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,7 +1183,7 @@
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1210,6 +1210,35 @@
         <v>45</v>
       </c>
       <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>04:59:14.046961</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>تراب</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>44</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,7 +1212,7 @@
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1239,6 +1239,35 @@
         <v>44</v>
       </c>
       <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>05:10:21.416760</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>اسطبات تدویر</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>220</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,7 +1241,7 @@
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1268,6 +1268,35 @@
         <v>220</v>
       </c>
       <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>05:29:42.370351</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>208.2</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,7 +1270,7 @@
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1297,6 +1297,35 @@
         <v>208.2</v>
       </c>
       <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>05:35:12.596007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>الثالثه</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>احمد عبالعزيزT.D</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>208.2</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,7 +1299,7 @@
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1326,6 +1326,35 @@
         <v>208.2</v>
       </c>
       <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08:40:12.285805</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>مكس</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,7 +1328,7 @@
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1355,6 +1355,35 @@
         <v>161.3</v>
       </c>
       <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>08:40:52.941410</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,7 +1357,7 @@
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1384,6 +1384,35 @@
         <v>197.6</v>
       </c>
       <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>08:41:17.686756</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>171</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,7 +1386,7 @@
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1413,6 +1413,35 @@
         <v>171</v>
       </c>
       <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>08:41:49.294262</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>206.6</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,7 +1415,7 @@
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1442,6 +1442,35 @@
         <v>206.6</v>
       </c>
       <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>08:42:08.885431</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,7 +1444,7 @@
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1471,6 +1471,35 @@
         <v>205.3</v>
       </c>
       <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>08:42:42.378028</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,7 +1473,7 @@
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1500,6 +1500,35 @@
         <v>205.8</v>
       </c>
       <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>08:43:02.045142</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>تمشيط مغلف</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,7 +1502,7 @@
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1529,6 +1529,35 @@
         <v>207.5</v>
       </c>
       <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>08:43:27.692713</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>هبوه دست</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,7 +1531,7 @@
       <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1558,6 +1558,35 @@
         <v>194.7</v>
       </c>
       <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>12:29:35.898317</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>191</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1560,7 +1560,7 @@
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1587,6 +1587,35 @@
         <v>191</v>
       </c>
       <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>12:30:01.891412</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>190</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,7 +1589,7 @@
       <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1616,6 +1616,35 @@
         <v>190</v>
       </c>
       <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12:30:32.486706</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>كرد</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>195</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,7 +1618,7 @@
       <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1645,6 +1645,35 @@
         <v>195</v>
       </c>
       <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>12:31:04.142468</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>عبدالحميدT.B</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>مكس</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/luva.xlsx
+++ b/luva.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,7 +1685,7 @@
       <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1712,6 +1712,35 @@
         <v>100</v>
       </c>
       <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>46015</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12:21:03.492611</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>الاولي</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>T.B</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>اسطبات تدویر</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
